--- a/profiles/BFI_assessment_module_TRIAL2def.xlsx
+++ b/profiles/BFI_assessment_module_TRIAL2def.xlsx
@@ -281,15 +281,11 @@
     <t xml:space="preserve">IO</t>
   </si>
   <si>
-    <t xml:space="preserve">LLM
-M</t>
+    <t xml:space="preserve">CHATBOT
+V</t>
   </si>
   <si>
     <t xml:space="preserve">DONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P_LLM
-V</t>
   </si>
   <si>
     <t xml:space="preserve">LLM
@@ -297,6 +293,11 @@
   </si>
   <si>
     <t xml:space="preserve">LuPo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHATBOT
+V
+</t>
   </si>
   <si>
     <t xml:space="preserve">LLM
@@ -314,7 +315,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="D/M/YY\ H:MM:SS"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy\ h:mm:ss"/>
     <numFmt numFmtId="168" formatCode="#,##0.00%"/>
   </numFmts>
   <fonts count="4">
@@ -546,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -724,6 +725,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -733,12 +738,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -868,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -878,7 +883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="20"/>
@@ -887,7 +892,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="8" style="3" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="57" style="5" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="57" style="5" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1405,17 +1410,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BU47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BT6" activeCellId="0" sqref="BT6"/>
+      <selection pane="topLeft" activeCell="BR6" activeCellId="0" sqref="BR6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.72"/>
@@ -1440,7 +1445,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="5" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="72" style="5" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="72" style="5" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1809,7 +1814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
         <v>85</v>
       </c>
@@ -2014,14 +2019,11 @@
       <c r="BP5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="BQ5" s="44" t="s">
+      <c r="BQ5" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS5" s="45" t="s">
         <v>88</v>
-      </c>
-      <c r="BR5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS5" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="BT5" s="5" t="s">
         <v>87</v>
@@ -2030,9 +2032,9 @@
         <v>998</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>999</v>
@@ -2230,12 +2232,15 @@
         <v>0.48</v>
       </c>
       <c r="BO6" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ6" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS6" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS6" s="45" t="s">
         <v>91</v>
       </c>
       <c r="BU6" s="5" t="n">
@@ -2320,7 +2325,7 @@
         <v>92</v>
       </c>
       <c r="BD7" s="23"/>
-      <c r="BN7" s="45"/>
+      <c r="BN7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
@@ -2400,7 +2405,7 @@
         <v>92</v>
       </c>
       <c r="BD8" s="23"/>
-      <c r="BN8" s="45"/>
+      <c r="BN8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29"/>
@@ -2480,7 +2485,7 @@
         <v>92</v>
       </c>
       <c r="BD9" s="23"/>
-      <c r="BN9" s="45"/>
+      <c r="BN9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
@@ -2560,7 +2565,7 @@
         <v>92</v>
       </c>
       <c r="BD10" s="23"/>
-      <c r="BN10" s="45"/>
+      <c r="BN10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29"/>
@@ -2640,7 +2645,7 @@
         <v>92</v>
       </c>
       <c r="BD11" s="23"/>
-      <c r="BN11" s="45"/>
+      <c r="BN11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29"/>
@@ -2720,7 +2725,7 @@
         <v>92</v>
       </c>
       <c r="BD12" s="23"/>
-      <c r="BN12" s="45"/>
+      <c r="BN12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M13" s="13"/>
@@ -2799,7 +2804,7 @@
         <v>92</v>
       </c>
       <c r="BD13" s="23"/>
-      <c r="BN13" s="45"/>
+      <c r="BN13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M14" s="13"/>
@@ -2878,7 +2883,7 @@
         <v>92</v>
       </c>
       <c r="BD14" s="23"/>
-      <c r="BN14" s="45"/>
+      <c r="BN14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M15" s="13"/>
@@ -2957,7 +2962,7 @@
         <v>92</v>
       </c>
       <c r="BD15" s="23"/>
-      <c r="BN15" s="45"/>
+      <c r="BN15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M16" s="13"/>
@@ -3036,7 +3041,7 @@
         <v>92</v>
       </c>
       <c r="BD16" s="23"/>
-      <c r="BN16" s="45"/>
+      <c r="BN16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M17" s="13"/>
@@ -3115,7 +3120,7 @@
         <v>92</v>
       </c>
       <c r="BD17" s="23"/>
-      <c r="BN17" s="45"/>
+      <c r="BN17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M18" s="13"/>
@@ -3194,7 +3199,7 @@
         <v>92</v>
       </c>
       <c r="BD18" s="23"/>
-      <c r="BN18" s="45"/>
+      <c r="BN18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M19" s="13"/>
@@ -3273,7 +3278,7 @@
         <v>92</v>
       </c>
       <c r="BD19" s="23"/>
-      <c r="BN19" s="45"/>
+      <c r="BN19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M20" s="13"/>
@@ -3320,7 +3325,7 @@
       <c r="BB20" s="19"/>
       <c r="BC20" s="15"/>
       <c r="BD20" s="23"/>
-      <c r="BN20" s="45"/>
+      <c r="BN20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M21" s="13"/>
@@ -3367,7 +3372,7 @@
       <c r="BB21" s="19"/>
       <c r="BC21" s="15"/>
       <c r="BD21" s="23"/>
-      <c r="BN21" s="45"/>
+      <c r="BN21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M22" s="13"/>
@@ -3414,7 +3419,7 @@
       <c r="BB22" s="19"/>
       <c r="BC22" s="15"/>
       <c r="BD22" s="23"/>
-      <c r="BN22" s="45"/>
+      <c r="BN22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M23" s="13"/>
@@ -3461,7 +3466,7 @@
       <c r="BB23" s="19"/>
       <c r="BC23" s="15"/>
       <c r="BD23" s="23"/>
-      <c r="BN23" s="45"/>
+      <c r="BN23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M24" s="13"/>
@@ -3508,7 +3513,7 @@
       <c r="BB24" s="19"/>
       <c r="BC24" s="15"/>
       <c r="BD24" s="23"/>
-      <c r="BN24" s="45"/>
+      <c r="BN24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M25" s="13"/>
@@ -3555,7 +3560,7 @@
       <c r="BB25" s="19"/>
       <c r="BC25" s="15"/>
       <c r="BD25" s="23"/>
-      <c r="BN25" s="45"/>
+      <c r="BN25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M26" s="13"/>
@@ -3602,7 +3607,7 @@
       <c r="BB26" s="19"/>
       <c r="BC26" s="15"/>
       <c r="BD26" s="23"/>
-      <c r="BN26" s="45"/>
+      <c r="BN26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M27" s="13"/>
@@ -3649,7 +3654,7 @@
       <c r="BB27" s="19"/>
       <c r="BC27" s="15"/>
       <c r="BD27" s="23"/>
-      <c r="BN27" s="45"/>
+      <c r="BN27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M28" s="13"/>
@@ -3696,7 +3701,7 @@
       <c r="BB28" s="19"/>
       <c r="BC28" s="15"/>
       <c r="BD28" s="23"/>
-      <c r="BN28" s="45"/>
+      <c r="BN28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M29" s="13"/>
@@ -3743,7 +3748,7 @@
       <c r="BB29" s="19"/>
       <c r="BC29" s="15"/>
       <c r="BD29" s="23"/>
-      <c r="BN29" s="45"/>
+      <c r="BN29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M30" s="13"/>
@@ -3790,7 +3795,7 @@
       <c r="BB30" s="19"/>
       <c r="BC30" s="15"/>
       <c r="BD30" s="23"/>
-      <c r="BN30" s="45"/>
+      <c r="BN30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M31" s="13"/>
@@ -3837,7 +3842,7 @@
       <c r="BB31" s="19"/>
       <c r="BC31" s="15"/>
       <c r="BD31" s="23"/>
-      <c r="BN31" s="45"/>
+      <c r="BN31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M32" s="13"/>
@@ -3884,7 +3889,7 @@
       <c r="BB32" s="19"/>
       <c r="BC32" s="15"/>
       <c r="BD32" s="23"/>
-      <c r="BN32" s="45"/>
+      <c r="BN32" s="46"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M33" s="13"/>
@@ -3931,7 +3936,7 @@
       <c r="BB33" s="19"/>
       <c r="BC33" s="15"/>
       <c r="BD33" s="23"/>
-      <c r="BN33" s="45"/>
+      <c r="BN33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M34" s="13"/>
@@ -3978,7 +3983,7 @@
       <c r="BB34" s="19"/>
       <c r="BC34" s="15"/>
       <c r="BD34" s="23"/>
-      <c r="BN34" s="45"/>
+      <c r="BN34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M35" s="13"/>
@@ -4025,7 +4030,7 @@
       <c r="BB35" s="19"/>
       <c r="BC35" s="15"/>
       <c r="BD35" s="23"/>
-      <c r="BN35" s="45"/>
+      <c r="BN35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M36" s="13"/>
@@ -4072,7 +4077,7 @@
       <c r="BB36" s="19"/>
       <c r="BC36" s="15"/>
       <c r="BD36" s="23"/>
-      <c r="BN36" s="45"/>
+      <c r="BN36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M37" s="13"/>
@@ -4119,7 +4124,7 @@
       <c r="BB37" s="19"/>
       <c r="BC37" s="15"/>
       <c r="BD37" s="23"/>
-      <c r="BN37" s="45"/>
+      <c r="BN37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M38" s="13"/>
@@ -4166,7 +4171,7 @@
       <c r="BB38" s="19"/>
       <c r="BC38" s="15"/>
       <c r="BD38" s="23"/>
-      <c r="BN38" s="45"/>
+      <c r="BN38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M39" s="13"/>
@@ -4213,7 +4218,7 @@
       <c r="BB39" s="19"/>
       <c r="BC39" s="15"/>
       <c r="BD39" s="23"/>
-      <c r="BN39" s="45"/>
+      <c r="BN39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M40" s="13"/>
@@ -4260,7 +4265,7 @@
       <c r="BB40" s="19"/>
       <c r="BC40" s="15"/>
       <c r="BD40" s="23"/>
-      <c r="BN40" s="45"/>
+      <c r="BN40" s="46"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M41" s="13"/>
@@ -4307,7 +4312,7 @@
       <c r="BB41" s="19"/>
       <c r="BC41" s="15"/>
       <c r="BD41" s="23"/>
-      <c r="BN41" s="45"/>
+      <c r="BN41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M42" s="13"/>
@@ -4354,7 +4359,7 @@
       <c r="BB42" s="19"/>
       <c r="BC42" s="15"/>
       <c r="BD42" s="23"/>
-      <c r="BN42" s="45"/>
+      <c r="BN42" s="46"/>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M43" s="13"/>
@@ -4401,7 +4406,7 @@
       <c r="BB43" s="19"/>
       <c r="BC43" s="15"/>
       <c r="BD43" s="23"/>
-      <c r="BN43" s="45"/>
+      <c r="BN43" s="46"/>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M44" s="13"/>
@@ -4448,7 +4453,7 @@
       <c r="BB44" s="19"/>
       <c r="BC44" s="15"/>
       <c r="BD44" s="23"/>
-      <c r="BN44" s="45"/>
+      <c r="BN44" s="46"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M45" s="13"/>
@@ -4495,7 +4500,7 @@
       <c r="BB45" s="19"/>
       <c r="BC45" s="15"/>
       <c r="BD45" s="23"/>
-      <c r="BN45" s="45"/>
+      <c r="BN45" s="46"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M46" s="13"/>
@@ -4542,7 +4547,7 @@
       <c r="BB46" s="19"/>
       <c r="BC46" s="15"/>
       <c r="BD46" s="23"/>
-      <c r="BN46" s="45"/>
+      <c r="BN46" s="46"/>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M47" s="13"/>
@@ -4589,7 +4594,7 @@
       <c r="BB47" s="19"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="23"/>
-      <c r="BN47" s="45"/>
+      <c r="BN47" s="46"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/profiles/BFI_assessment_module_TRIAL2def.xlsx
+++ b/profiles/BFI_assessment_module_TRIAL2def.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="95">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -285,19 +285,27 @@
 V</t>
   </si>
   <si>
-    <t xml:space="preserve">DONE</t>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">LLM
 AL</t>
   </si>
   <si>
+    <t xml:space="preserve">DONE</t>
+  </si>
+  <si>
     <t xml:space="preserve">LuPo</t>
   </si>
   <si>
-    <t xml:space="preserve">CHATBOT
-V
+    <t xml:space="preserve">LLM
+M
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLM
+M</t>
   </si>
   <si>
     <t xml:space="preserve">LLM
@@ -315,7 +323,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy\ h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="D/M/YY\ H:MM:SS"/>
     <numFmt numFmtId="168" formatCode="#,##0.00%"/>
   </numFmts>
   <fonts count="4">
@@ -547,7 +555,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -728,6 +736,10 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -738,12 +750,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -873,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -883,7 +895,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="20"/>
@@ -892,7 +904,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="8" style="3" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="11.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="57" style="5" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="57" style="5" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1410,17 +1422,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BU47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BR6" activeCellId="0" sqref="BR6"/>
+      <selection pane="topLeft" activeCell="BT15" activeCellId="0" sqref="BT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.72"/>
@@ -1445,7 +1457,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="5" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="14.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="72" style="5" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="72" style="5" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2016,17 +2028,17 @@
       <c r="BO5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="BP5" s="5" t="s">
+      <c r="BP5" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="BQ5" s="45" t="s">
+      <c r="BQ5" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="BS5" s="45" t="s">
+      <c r="BS5" s="46" t="s">
         <v>88</v>
       </c>
       <c r="BT5" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BU5" s="5" t="n">
         <v>998</v>
@@ -2034,7 +2046,7 @@
     </row>
     <row r="6" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>999</v>
@@ -2232,16 +2244,13 @@
         <v>0.48</v>
       </c>
       <c r="BO6" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ6" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS6" s="45" t="s">
         <v>91</v>
+      </c>
+      <c r="BQ6" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS6" s="46" t="s">
+        <v>93</v>
       </c>
       <c r="BU6" s="5" t="n">
         <v>999</v>
@@ -2251,25 +2260,25 @@
       <c r="A7" s="29"/>
       <c r="M7" s="13"/>
       <c r="N7" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O7" s="33"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S7" s="19"/>
       <c r="T7" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V7" s="17"/>
       <c r="W7" s="13"/>
       <c r="X7" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="16"/>
@@ -2277,79 +2286,79 @@
       <c r="AB7" s="13"/>
       <c r="AC7" s="19"/>
       <c r="AD7" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE7" s="16"/>
       <c r="AF7" s="17"/>
       <c r="AG7" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH7" s="19"/>
       <c r="AI7" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK7" s="17"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN7" s="15"/>
       <c r="AO7" s="16"/>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR7" s="19"/>
       <c r="AS7" s="15"/>
       <c r="AT7" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU7" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV7" s="13"/>
       <c r="AW7" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX7" s="15"/>
       <c r="AY7" s="16"/>
       <c r="AZ7" s="17"/>
       <c r="BA7" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB7" s="19"/>
       <c r="BC7" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD7" s="23"/>
-      <c r="BN7" s="46"/>
+      <c r="BN7" s="47"/>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
       <c r="M8" s="13"/>
       <c r="N8" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S8" s="19"/>
       <c r="T8" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V8" s="17"/>
       <c r="W8" s="13"/>
       <c r="X8" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y8" s="15"/>
       <c r="Z8" s="16"/>
@@ -2357,79 +2366,79 @@
       <c r="AB8" s="13"/>
       <c r="AC8" s="19"/>
       <c r="AD8" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE8" s="16"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH8" s="19"/>
       <c r="AI8" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK8" s="17"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN8" s="15"/>
       <c r="AO8" s="16"/>
       <c r="AP8" s="17"/>
       <c r="AQ8" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR8" s="19"/>
       <c r="AS8" s="15"/>
       <c r="AT8" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU8" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV8" s="13"/>
       <c r="AW8" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX8" s="15"/>
       <c r="AY8" s="16"/>
       <c r="AZ8" s="17"/>
       <c r="BA8" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB8" s="19"/>
       <c r="BC8" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD8" s="23"/>
-      <c r="BN8" s="46"/>
+      <c r="BN8" s="47"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29"/>
       <c r="M9" s="13"/>
       <c r="N9" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="13"/>
       <c r="X9" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y9" s="15"/>
       <c r="Z9" s="16"/>
@@ -2437,79 +2446,79 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE9" s="16"/>
       <c r="AF9" s="17"/>
       <c r="AG9" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH9" s="19"/>
       <c r="AI9" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK9" s="17"/>
       <c r="AL9" s="13"/>
       <c r="AM9" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN9" s="15"/>
       <c r="AO9" s="16"/>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR9" s="19"/>
       <c r="AS9" s="15"/>
       <c r="AT9" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU9" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV9" s="13"/>
       <c r="AW9" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX9" s="15"/>
       <c r="AY9" s="16"/>
       <c r="AZ9" s="17"/>
       <c r="BA9" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB9" s="19"/>
       <c r="BC9" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD9" s="23"/>
-      <c r="BN9" s="46"/>
+      <c r="BN9" s="47"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
       <c r="M10" s="13"/>
       <c r="N10" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="13"/>
       <c r="X10" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y10" s="15"/>
       <c r="Z10" s="16"/>
@@ -2517,79 +2526,79 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="19"/>
       <c r="AD10" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE10" s="16"/>
       <c r="AF10" s="17"/>
       <c r="AG10" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH10" s="19"/>
       <c r="AI10" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK10" s="17"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN10" s="15"/>
       <c r="AO10" s="16"/>
       <c r="AP10" s="17"/>
       <c r="AQ10" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR10" s="19"/>
       <c r="AS10" s="15"/>
       <c r="AT10" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU10" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV10" s="13"/>
       <c r="AW10" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX10" s="15"/>
       <c r="AY10" s="16"/>
       <c r="AZ10" s="17"/>
       <c r="BA10" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB10" s="19"/>
       <c r="BC10" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD10" s="23"/>
-      <c r="BN10" s="46"/>
+      <c r="BN10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="29"/>
       <c r="M11" s="13"/>
       <c r="N11" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S11" s="19"/>
       <c r="T11" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="13"/>
       <c r="X11" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y11" s="15"/>
       <c r="Z11" s="16"/>
@@ -2597,79 +2606,79 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="19"/>
       <c r="AD11" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE11" s="16"/>
       <c r="AF11" s="17"/>
       <c r="AG11" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH11" s="19"/>
       <c r="AI11" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ11" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK11" s="17"/>
       <c r="AL11" s="13"/>
       <c r="AM11" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN11" s="15"/>
       <c r="AO11" s="16"/>
       <c r="AP11" s="17"/>
       <c r="AQ11" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR11" s="19"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU11" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV11" s="13"/>
       <c r="AW11" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX11" s="15"/>
       <c r="AY11" s="16"/>
       <c r="AZ11" s="17"/>
       <c r="BA11" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB11" s="19"/>
       <c r="BC11" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD11" s="23"/>
-      <c r="BN11" s="46"/>
+      <c r="BN11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29"/>
       <c r="M12" s="13"/>
       <c r="N12" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V12" s="17"/>
       <c r="W12" s="13"/>
       <c r="X12" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y12" s="15"/>
       <c r="Z12" s="16"/>
@@ -2677,78 +2686,78 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="19"/>
       <c r="AD12" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE12" s="16"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH12" s="19"/>
       <c r="AI12" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ12" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK12" s="17"/>
       <c r="AL12" s="13"/>
       <c r="AM12" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN12" s="15"/>
       <c r="AO12" s="16"/>
       <c r="AP12" s="17"/>
       <c r="AQ12" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR12" s="19"/>
       <c r="AS12" s="15"/>
       <c r="AT12" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU12" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV12" s="13"/>
       <c r="AW12" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX12" s="15"/>
       <c r="AY12" s="16"/>
       <c r="AZ12" s="17"/>
       <c r="BA12" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB12" s="19"/>
       <c r="BC12" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD12" s="23"/>
-      <c r="BN12" s="46"/>
+      <c r="BN12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M13" s="13"/>
       <c r="N13" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S13" s="19"/>
       <c r="T13" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="13"/>
       <c r="X13" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y13" s="15"/>
       <c r="Z13" s="16"/>
@@ -2756,78 +2765,78 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="19"/>
       <c r="AD13" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE13" s="16"/>
       <c r="AF13" s="17"/>
       <c r="AG13" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH13" s="19"/>
       <c r="AI13" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ13" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK13" s="17"/>
       <c r="AL13" s="13"/>
       <c r="AM13" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN13" s="15"/>
       <c r="AO13" s="16"/>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR13" s="19"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU13" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV13" s="13"/>
       <c r="AW13" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX13" s="15"/>
       <c r="AY13" s="16"/>
       <c r="AZ13" s="17"/>
       <c r="BA13" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB13" s="19"/>
       <c r="BC13" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD13" s="23"/>
-      <c r="BN13" s="46"/>
+      <c r="BN13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M14" s="13"/>
       <c r="N14" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V14" s="17"/>
       <c r="W14" s="13"/>
       <c r="X14" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y14" s="15"/>
       <c r="Z14" s="16"/>
@@ -2835,78 +2844,78 @@
       <c r="AB14" s="13"/>
       <c r="AC14" s="19"/>
       <c r="AD14" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE14" s="16"/>
       <c r="AF14" s="17"/>
       <c r="AG14" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH14" s="19"/>
       <c r="AI14" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ14" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK14" s="17"/>
       <c r="AL14" s="13"/>
       <c r="AM14" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN14" s="15"/>
       <c r="AO14" s="16"/>
       <c r="AP14" s="17"/>
       <c r="AQ14" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR14" s="19"/>
       <c r="AS14" s="15"/>
       <c r="AT14" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU14" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV14" s="13"/>
       <c r="AW14" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX14" s="15"/>
       <c r="AY14" s="16"/>
       <c r="AZ14" s="17"/>
       <c r="BA14" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB14" s="19"/>
       <c r="BC14" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD14" s="23"/>
-      <c r="BN14" s="46"/>
+      <c r="BN14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M15" s="13"/>
       <c r="N15" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S15" s="19"/>
       <c r="T15" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="13"/>
       <c r="X15" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="16"/>
@@ -2914,78 +2923,78 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="19"/>
       <c r="AD15" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE15" s="16"/>
       <c r="AF15" s="17"/>
       <c r="AG15" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH15" s="19"/>
       <c r="AI15" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ15" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK15" s="17"/>
       <c r="AL15" s="13"/>
       <c r="AM15" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN15" s="15"/>
       <c r="AO15" s="16"/>
       <c r="AP15" s="17"/>
       <c r="AQ15" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR15" s="19"/>
       <c r="AS15" s="15"/>
       <c r="AT15" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU15" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV15" s="13"/>
       <c r="AW15" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX15" s="15"/>
       <c r="AY15" s="16"/>
       <c r="AZ15" s="17"/>
       <c r="BA15" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB15" s="19"/>
       <c r="BC15" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD15" s="23"/>
-      <c r="BN15" s="46"/>
+      <c r="BN15" s="47"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M16" s="13"/>
       <c r="N16" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O16" s="15"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S16" s="19"/>
       <c r="T16" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="13"/>
       <c r="X16" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y16" s="15"/>
       <c r="Z16" s="16"/>
@@ -2993,78 +3002,78 @@
       <c r="AB16" s="13"/>
       <c r="AC16" s="19"/>
       <c r="AD16" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE16" s="16"/>
       <c r="AF16" s="17"/>
       <c r="AG16" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH16" s="19"/>
       <c r="AI16" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ16" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK16" s="17"/>
       <c r="AL16" s="13"/>
       <c r="AM16" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN16" s="15"/>
       <c r="AO16" s="16"/>
       <c r="AP16" s="17"/>
       <c r="AQ16" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR16" s="19"/>
       <c r="AS16" s="15"/>
       <c r="AT16" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU16" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV16" s="13"/>
       <c r="AW16" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX16" s="15"/>
       <c r="AY16" s="16"/>
       <c r="AZ16" s="17"/>
       <c r="BA16" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB16" s="19"/>
       <c r="BC16" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD16" s="23"/>
-      <c r="BN16" s="46"/>
+      <c r="BN16" s="47"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M17" s="13"/>
       <c r="N17" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S17" s="19"/>
       <c r="T17" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="13"/>
       <c r="X17" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y17" s="15"/>
       <c r="Z17" s="16"/>
@@ -3072,78 +3081,78 @@
       <c r="AB17" s="13"/>
       <c r="AC17" s="19"/>
       <c r="AD17" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE17" s="16"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH17" s="19"/>
       <c r="AI17" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ17" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK17" s="17"/>
       <c r="AL17" s="13"/>
       <c r="AM17" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="16"/>
       <c r="AP17" s="17"/>
       <c r="AQ17" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR17" s="19"/>
       <c r="AS17" s="15"/>
       <c r="AT17" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU17" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV17" s="13"/>
       <c r="AW17" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX17" s="15"/>
       <c r="AY17" s="16"/>
       <c r="AZ17" s="17"/>
       <c r="BA17" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB17" s="19"/>
       <c r="BC17" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD17" s="23"/>
-      <c r="BN17" s="46"/>
+      <c r="BN17" s="47"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M18" s="13"/>
       <c r="N18" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S18" s="19"/>
       <c r="T18" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="13"/>
       <c r="X18" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y18" s="15"/>
       <c r="Z18" s="16"/>
@@ -3151,78 +3160,78 @@
       <c r="AB18" s="13"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE18" s="16"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH18" s="19"/>
       <c r="AI18" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ18" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK18" s="17"/>
       <c r="AL18" s="13"/>
       <c r="AM18" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN18" s="15"/>
       <c r="AO18" s="16"/>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR18" s="19"/>
       <c r="AS18" s="15"/>
       <c r="AT18" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU18" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV18" s="13"/>
       <c r="AW18" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX18" s="15"/>
       <c r="AY18" s="16"/>
       <c r="AZ18" s="17"/>
       <c r="BA18" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB18" s="19"/>
       <c r="BC18" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD18" s="23"/>
-      <c r="BN18" s="46"/>
+      <c r="BN18" s="47"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M19" s="13"/>
       <c r="N19" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S19" s="19"/>
       <c r="T19" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V19" s="17"/>
       <c r="W19" s="13"/>
       <c r="X19" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y19" s="15"/>
       <c r="Z19" s="16"/>
@@ -3230,55 +3239,55 @@
       <c r="AB19" s="13"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE19" s="16"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH19" s="19"/>
       <c r="AI19" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ19" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK19" s="17"/>
       <c r="AL19" s="13"/>
       <c r="AM19" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AN19" s="15"/>
       <c r="AO19" s="16"/>
       <c r="AP19" s="17"/>
       <c r="AQ19" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR19" s="19"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU19" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AV19" s="13"/>
       <c r="AW19" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AX19" s="15"/>
       <c r="AY19" s="16"/>
       <c r="AZ19" s="17"/>
       <c r="BA19" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BB19" s="19"/>
       <c r="BC19" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BD19" s="23"/>
-      <c r="BN19" s="46"/>
+      <c r="BN19" s="47"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M20" s="13"/>
@@ -3325,7 +3334,7 @@
       <c r="BB20" s="19"/>
       <c r="BC20" s="15"/>
       <c r="BD20" s="23"/>
-      <c r="BN20" s="46"/>
+      <c r="BN20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M21" s="13"/>
@@ -3372,7 +3381,7 @@
       <c r="BB21" s="19"/>
       <c r="BC21" s="15"/>
       <c r="BD21" s="23"/>
-      <c r="BN21" s="46"/>
+      <c r="BN21" s="47"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M22" s="13"/>
@@ -3419,7 +3428,7 @@
       <c r="BB22" s="19"/>
       <c r="BC22" s="15"/>
       <c r="BD22" s="23"/>
-      <c r="BN22" s="46"/>
+      <c r="BN22" s="47"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M23" s="13"/>
@@ -3466,7 +3475,7 @@
       <c r="BB23" s="19"/>
       <c r="BC23" s="15"/>
       <c r="BD23" s="23"/>
-      <c r="BN23" s="46"/>
+      <c r="BN23" s="47"/>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M24" s="13"/>
@@ -3513,7 +3522,7 @@
       <c r="BB24" s="19"/>
       <c r="BC24" s="15"/>
       <c r="BD24" s="23"/>
-      <c r="BN24" s="46"/>
+      <c r="BN24" s="47"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M25" s="13"/>
@@ -3560,7 +3569,7 @@
       <c r="BB25" s="19"/>
       <c r="BC25" s="15"/>
       <c r="BD25" s="23"/>
-      <c r="BN25" s="46"/>
+      <c r="BN25" s="47"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M26" s="13"/>
@@ -3607,7 +3616,7 @@
       <c r="BB26" s="19"/>
       <c r="BC26" s="15"/>
       <c r="BD26" s="23"/>
-      <c r="BN26" s="46"/>
+      <c r="BN26" s="47"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M27" s="13"/>
@@ -3654,7 +3663,7 @@
       <c r="BB27" s="19"/>
       <c r="BC27" s="15"/>
       <c r="BD27" s="23"/>
-      <c r="BN27" s="46"/>
+      <c r="BN27" s="47"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M28" s="13"/>
@@ -3701,7 +3710,7 @@
       <c r="BB28" s="19"/>
       <c r="BC28" s="15"/>
       <c r="BD28" s="23"/>
-      <c r="BN28" s="46"/>
+      <c r="BN28" s="47"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M29" s="13"/>
@@ -3748,7 +3757,7 @@
       <c r="BB29" s="19"/>
       <c r="BC29" s="15"/>
       <c r="BD29" s="23"/>
-      <c r="BN29" s="46"/>
+      <c r="BN29" s="47"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M30" s="13"/>
@@ -3795,7 +3804,7 @@
       <c r="BB30" s="19"/>
       <c r="BC30" s="15"/>
       <c r="BD30" s="23"/>
-      <c r="BN30" s="46"/>
+      <c r="BN30" s="47"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M31" s="13"/>
@@ -3842,7 +3851,7 @@
       <c r="BB31" s="19"/>
       <c r="BC31" s="15"/>
       <c r="BD31" s="23"/>
-      <c r="BN31" s="46"/>
+      <c r="BN31" s="47"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M32" s="13"/>
@@ -3889,7 +3898,7 @@
       <c r="BB32" s="19"/>
       <c r="BC32" s="15"/>
       <c r="BD32" s="23"/>
-      <c r="BN32" s="46"/>
+      <c r="BN32" s="47"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M33" s="13"/>
@@ -3936,7 +3945,7 @@
       <c r="BB33" s="19"/>
       <c r="BC33" s="15"/>
       <c r="BD33" s="23"/>
-      <c r="BN33" s="46"/>
+      <c r="BN33" s="47"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M34" s="13"/>
@@ -3983,7 +3992,7 @@
       <c r="BB34" s="19"/>
       <c r="BC34" s="15"/>
       <c r="BD34" s="23"/>
-      <c r="BN34" s="46"/>
+      <c r="BN34" s="47"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M35" s="13"/>
@@ -4030,7 +4039,7 @@
       <c r="BB35" s="19"/>
       <c r="BC35" s="15"/>
       <c r="BD35" s="23"/>
-      <c r="BN35" s="46"/>
+      <c r="BN35" s="47"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M36" s="13"/>
@@ -4077,7 +4086,7 @@
       <c r="BB36" s="19"/>
       <c r="BC36" s="15"/>
       <c r="BD36" s="23"/>
-      <c r="BN36" s="46"/>
+      <c r="BN36" s="47"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M37" s="13"/>
@@ -4124,7 +4133,7 @@
       <c r="BB37" s="19"/>
       <c r="BC37" s="15"/>
       <c r="BD37" s="23"/>
-      <c r="BN37" s="46"/>
+      <c r="BN37" s="47"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M38" s="13"/>
@@ -4171,7 +4180,7 @@
       <c r="BB38" s="19"/>
       <c r="BC38" s="15"/>
       <c r="BD38" s="23"/>
-      <c r="BN38" s="46"/>
+      <c r="BN38" s="47"/>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M39" s="13"/>
@@ -4218,7 +4227,7 @@
       <c r="BB39" s="19"/>
       <c r="BC39" s="15"/>
       <c r="BD39" s="23"/>
-      <c r="BN39" s="46"/>
+      <c r="BN39" s="47"/>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M40" s="13"/>
@@ -4265,7 +4274,7 @@
       <c r="BB40" s="19"/>
       <c r="BC40" s="15"/>
       <c r="BD40" s="23"/>
-      <c r="BN40" s="46"/>
+      <c r="BN40" s="47"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M41" s="13"/>
@@ -4312,7 +4321,7 @@
       <c r="BB41" s="19"/>
       <c r="BC41" s="15"/>
       <c r="BD41" s="23"/>
-      <c r="BN41" s="46"/>
+      <c r="BN41" s="47"/>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M42" s="13"/>
@@ -4359,7 +4368,7 @@
       <c r="BB42" s="19"/>
       <c r="BC42" s="15"/>
       <c r="BD42" s="23"/>
-      <c r="BN42" s="46"/>
+      <c r="BN42" s="47"/>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M43" s="13"/>
@@ -4406,7 +4415,7 @@
       <c r="BB43" s="19"/>
       <c r="BC43" s="15"/>
       <c r="BD43" s="23"/>
-      <c r="BN43" s="46"/>
+      <c r="BN43" s="47"/>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M44" s="13"/>
@@ -4453,7 +4462,7 @@
       <c r="BB44" s="19"/>
       <c r="BC44" s="15"/>
       <c r="BD44" s="23"/>
-      <c r="BN44" s="46"/>
+      <c r="BN44" s="47"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M45" s="13"/>
@@ -4500,7 +4509,7 @@
       <c r="BB45" s="19"/>
       <c r="BC45" s="15"/>
       <c r="BD45" s="23"/>
-      <c r="BN45" s="46"/>
+      <c r="BN45" s="47"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M46" s="13"/>
@@ -4547,7 +4556,7 @@
       <c r="BB46" s="19"/>
       <c r="BC46" s="15"/>
       <c r="BD46" s="23"/>
-      <c r="BN46" s="46"/>
+      <c r="BN46" s="47"/>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M47" s="13"/>
@@ -4594,7 +4603,7 @@
       <c r="BB47" s="19"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="23"/>
-      <c r="BN47" s="46"/>
+      <c r="BN47" s="47"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
